--- a/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4E0318-C3FB-4E25-8C01-FDFF334D3FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CDAB0C-7AF2-4CD8-B9D1-6BF45629C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B80C0709-ADB6-409C-8EAE-E62F34AF36BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{990068B5-8A1E-4BC6-B085-263C615A5A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="248">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -92,16 +92,13 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>5,58%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -110,16 +107,16 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>1,13%</t>
@@ -128,7 +125,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -137,28 +134,28 @@
     <t>20,26%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -167,28 +164,28 @@
     <t>77,71%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -203,22 +200,22 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -227,559 +224,559 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D4288C-564E-4CE6-808F-ED6505FBCE53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3BAA2-4C2C-4B2D-8FFB-943262C97653}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1402,16 +1399,16 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1420,13 +1417,13 @@
         <v>970</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -1435,13 +1432,13 @@
         <v>1623</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1450,19 +1447,19 @@
         <v>2593</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <v>26</v>
@@ -1471,13 +1468,13 @@
         <v>20219</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -1486,13 +1483,13 @@
         <v>25038</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>82</v>
@@ -1501,19 +1498,19 @@
         <v>45257</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <v>86</v>
@@ -1522,13 +1519,13 @@
         <v>77546</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>179</v>
@@ -1537,13 +1534,13 @@
         <v>102071</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -1552,13 +1549,13 @@
         <v>179617</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,13 +1570,13 @@
         <v>99793</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>239</v>
@@ -1588,13 +1585,13 @@
         <v>128732</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>355</v>
@@ -1603,18 +1600,18 @@
         <v>228525</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1632,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1641,13 +1638,13 @@
         <v>2477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1656,13 +1653,13 @@
         <v>2477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1674,13 @@
         <v>4760</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1692,13 +1689,13 @@
         <v>2211</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1707,19 +1704,19 @@
         <v>6971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>28</v>
@@ -1728,13 +1725,13 @@
         <v>26939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -1743,13 +1740,13 @@
         <v>16422</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -1758,19 +1755,19 @@
         <v>43361</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>132</v>
@@ -1779,13 +1776,13 @@
         <v>116822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>210</v>
@@ -1794,13 +1791,13 @@
         <v>115266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -1809,19 +1806,19 @@
         <v>232088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>440</v>
@@ -1830,13 +1827,13 @@
         <v>395623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>746</v>
@@ -1845,13 +1842,13 @@
         <v>453291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>1186</v>
@@ -1860,13 +1857,13 @@
         <v>848913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1878,13 @@
         <v>544144</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>990</v>
@@ -1896,13 +1893,13 @@
         <v>589667</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>1596</v>
@@ -1911,18 +1908,18 @@
         <v>1133810</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1934,13 +1931,13 @@
         <v>5389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1949,13 +1946,13 @@
         <v>3327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1964,13 +1961,13 @@
         <v>8716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1982,13 @@
         <v>7871</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2003,10 +2000,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2015,10 +2012,10 @@
         <v>16307</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>105</v>
@@ -2027,7 +2024,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>46</v>
@@ -2054,10 +2051,10 @@
         <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>81</v>
@@ -2066,19 +2063,19 @@
         <v>67539</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
         <v>234</v>
@@ -2087,13 +2084,13 @@
         <v>232693</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>369</v>
@@ -2102,7 +2099,7 @@
         <v>236161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>118</v>
@@ -2129,7 +2126,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>665</v>
@@ -2165,7 +2162,7 @@
         <v>1757</v>
       </c>
       <c r="N20" s="7">
-        <v>1527961</v>
+        <v>1527962</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>129</v>
@@ -2189,13 +2186,13 @@
         <v>1032598</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>1512</v>
@@ -2204,28 +2201,28 @@
         <v>1056779</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>2470</v>
       </c>
       <c r="N21" s="7">
-        <v>2089377</v>
+        <v>2089378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,10 +2242,10 @@
         <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2257,13 +2254,13 @@
         <v>2766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2272,13 +2269,13 @@
         <v>8138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,10 +2290,10 @@
         <v>5332</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>141</v>
@@ -2308,13 +2305,13 @@
         <v>1896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2323,19 +2320,19 @@
         <v>7228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>28</v>
@@ -2344,13 +2341,13 @@
         <v>28168</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2359,13 +2356,13 @@
         <v>21352</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2374,19 +2371,19 @@
         <v>49520</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
         <v>186</v>
@@ -2395,13 +2392,13 @@
         <v>215011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>230</v>
@@ -2410,13 +2407,13 @@
         <v>163926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -2425,19 +2422,19 @@
         <v>378936</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
         <v>447</v>
@@ -2446,13 +2443,13 @@
         <v>471786</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>780</v>
@@ -2461,13 +2458,13 @@
         <v>681732</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1227</v>
@@ -2476,13 +2473,13 @@
         <v>1153518</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2494,13 @@
         <v>725669</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>1043</v>
@@ -2512,13 +2509,13 @@
         <v>871671</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>1714</v>
@@ -2527,18 +2524,18 @@
         <v>1597340</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2550,13 +2547,13 @@
         <v>1610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2565,13 +2562,13 @@
         <v>3142</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -2583,7 +2580,7 @@
         <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -2601,13 +2598,13 @@
         <v>9571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2616,13 +2613,13 @@
         <v>5317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2631,19 +2628,19 @@
         <v>14888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>42</v>
@@ -2652,13 +2649,13 @@
         <v>43925</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -2667,13 +2664,13 @@
         <v>39104</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -2682,19 +2679,19 @@
         <v>83029</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>165</v>
@@ -2745,7 +2742,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>781</v>
@@ -2757,10 +2754,10 @@
         <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>1220</v>
@@ -2769,13 +2766,13 @@
         <v>891857</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>2001</v>
@@ -2784,13 +2781,13 @@
         <v>1632734</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2802,13 @@
         <v>956975</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>1557</v>
@@ -2820,13 +2817,13 @@
         <v>1142542</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>2556</v>
@@ -2835,13 +2832,13 @@
         <v>2099516</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2855,13 @@
         <v>12371</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -2873,13 +2870,13 @@
         <v>11712</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -2888,13 +2885,13 @@
         <v>24083</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2906,13 @@
         <v>28592</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -2924,13 +2921,13 @@
         <v>17860</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="M35" s="7">
         <v>56</v>
@@ -2951,7 +2948,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
         <v>146</v>
@@ -2978,10 +2975,10 @@
         <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>290</v>
@@ -2990,19 +2987,19 @@
         <v>246042</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7">
         <v>743</v>
@@ -3011,13 +3008,13 @@
         <v>745736</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>1140</v>
@@ -3026,13 +3023,13 @@
         <v>743512</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>1883</v>
@@ -3041,19 +3038,19 @@
         <v>1489248</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
         <v>2419</v>
@@ -3062,13 +3059,13 @@
         <v>2427304</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>4017</v>
@@ -3077,13 +3074,13 @@
         <v>2915440</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>6436</v>
@@ -3092,13 +3089,13 @@
         <v>5342744</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3110,13 @@
         <v>3359179</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" s="7">
         <v>5341</v>
@@ -3128,13 +3125,13 @@
         <v>3789390</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7">
         <v>8691</v>
@@ -3143,18 +3140,18 @@
         <v>7148569</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CDAB0C-7AF2-4CD8-B9D1-6BF45629C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF839382-7855-4226-922B-C5FC937AE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{990068B5-8A1E-4BC6-B085-263C615A5A0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E835E626-844F-42F3-9F86-5CF91F87B18B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -308,7 +308,7 @@
     <t>77,24%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -434,7 +434,7 @@
     <t>75,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3BAA2-4C2C-4B2D-8FFB-943262C97653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDAFA62-8CF1-4A6D-959E-F9FE6A59BC2A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF839382-7855-4226-922B-C5FC937AE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{766301F1-4EF0-41B2-BBD9-F1A9BB746E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E835E626-844F-42F3-9F86-5CF91F87B18B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{289FC704-933A-4E2C-8A21-4B0E395DD365}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="249">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -92,601 +92,601 @@
     <t>1,06%</t>
   </si>
   <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -698,85 +698,88 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,89%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1191,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDAFA62-8CF1-4A6D-959E-F9FE6A59BC2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ABC133-FB01-485B-8C5F-E4F7A001D813}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,16 +1402,16 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1417,13 +1420,13 @@
         <v>970</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -1432,13 +1435,13 @@
         <v>1623</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1447,19 +1450,19 @@
         <v>2593</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>26</v>
@@ -1468,13 +1471,13 @@
         <v>20219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -1483,13 +1486,13 @@
         <v>25038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>82</v>
@@ -1498,19 +1501,19 @@
         <v>45257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>86</v>
@@ -1519,13 +1522,13 @@
         <v>77546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>179</v>
@@ -1534,13 +1537,13 @@
         <v>102071</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -1549,13 +1552,13 @@
         <v>179617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,13 +1573,13 @@
         <v>99793</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>239</v>
@@ -1585,13 +1588,13 @@
         <v>128732</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>355</v>
@@ -1600,18 +1603,18 @@
         <v>228525</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1629,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1638,13 +1641,13 @@
         <v>2477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1653,13 +1656,13 @@
         <v>2477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1677,13 @@
         <v>4760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1689,13 +1692,13 @@
         <v>2211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1704,19 +1707,19 @@
         <v>6971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>28</v>
@@ -1725,13 +1728,13 @@
         <v>26939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -1740,13 +1743,13 @@
         <v>16422</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -1755,19 +1758,19 @@
         <v>43361</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>132</v>
@@ -1776,13 +1779,13 @@
         <v>116822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>210</v>
@@ -1791,13 +1794,13 @@
         <v>115266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -1806,19 +1809,19 @@
         <v>232088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>440</v>
@@ -1827,13 +1830,13 @@
         <v>395623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>746</v>
@@ -1842,13 +1845,13 @@
         <v>453291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1186</v>
@@ -1857,13 +1860,13 @@
         <v>848913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1881,13 @@
         <v>544144</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>990</v>
@@ -1893,13 +1896,13 @@
         <v>589667</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>1596</v>
@@ -1908,18 +1911,18 @@
         <v>1133810</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1931,13 +1934,13 @@
         <v>5389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1946,13 +1949,13 @@
         <v>3327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1961,13 +1964,13 @@
         <v>8716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1985,13 @@
         <v>7871</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2000,10 +2003,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2012,10 +2015,10 @@
         <v>16307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>105</v>
@@ -2024,7 +2027,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>46</v>
@@ -2051,10 +2054,10 @@
         <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>81</v>
@@ -2063,19 +2066,19 @@
         <v>67539</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>234</v>
@@ -2084,13 +2087,13 @@
         <v>232693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>369</v>
@@ -2099,7 +2102,7 @@
         <v>236161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>118</v>
@@ -2126,7 +2129,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
         <v>665</v>
@@ -2162,7 +2165,7 @@
         <v>1757</v>
       </c>
       <c r="N20" s="7">
-        <v>1527962</v>
+        <v>1527961</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>129</v>
@@ -2186,13 +2189,13 @@
         <v>1032598</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>1512</v>
@@ -2201,28 +2204,28 @@
         <v>1056779</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>2470</v>
       </c>
       <c r="N21" s="7">
-        <v>2089378</v>
+        <v>2089377</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,10 +2245,10 @@
         <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2254,13 +2257,13 @@
         <v>2766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2269,13 +2272,13 @@
         <v>8138</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,10 +2293,10 @@
         <v>5332</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>141</v>
@@ -2305,13 +2308,13 @@
         <v>1896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2320,19 +2323,19 @@
         <v>7228</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7">
         <v>28</v>
@@ -2341,13 +2344,13 @@
         <v>28168</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2356,13 +2359,13 @@
         <v>21352</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2371,19 +2374,19 @@
         <v>49520</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>186</v>
@@ -2392,13 +2395,13 @@
         <v>215011</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>230</v>
@@ -2407,13 +2410,13 @@
         <v>163926</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -2422,19 +2425,19 @@
         <v>378936</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
         <v>447</v>
@@ -2443,13 +2446,13 @@
         <v>471786</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>780</v>
@@ -2458,13 +2461,13 @@
         <v>681732</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1227</v>
@@ -2473,13 +2476,13 @@
         <v>1153518</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2497,13 @@
         <v>725669</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>1043</v>
@@ -2509,13 +2512,13 @@
         <v>871671</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>1714</v>
@@ -2524,18 +2527,18 @@
         <v>1597340</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2547,13 +2550,13 @@
         <v>1610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2562,13 +2565,13 @@
         <v>3142</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -2580,7 +2583,7 @@
         <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -2598,13 +2601,13 @@
         <v>9571</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2613,13 +2616,13 @@
         <v>5317</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2628,19 +2631,19 @@
         <v>14888</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7">
         <v>42</v>
@@ -2649,13 +2652,13 @@
         <v>43925</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -2664,13 +2667,13 @@
         <v>39104</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -2679,19 +2682,19 @@
         <v>83029</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>165</v>
@@ -2742,7 +2745,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>781</v>
@@ -2754,10 +2757,10 @@
         <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>1220</v>
@@ -2766,13 +2769,13 @@
         <v>891857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>2001</v>
@@ -2781,13 +2784,13 @@
         <v>1632734</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2805,13 @@
         <v>956975</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>1557</v>
@@ -2817,13 +2820,13 @@
         <v>1142542</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>2556</v>
@@ -2832,13 +2835,13 @@
         <v>2099516</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2858,13 @@
         <v>12371</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -2870,13 +2873,13 @@
         <v>11712</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -2885,13 +2888,13 @@
         <v>24083</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2909,13 @@
         <v>28592</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -2921,13 +2924,13 @@
         <v>17860</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="M35" s="7">
         <v>56</v>
@@ -2948,7 +2951,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7">
         <v>146</v>
@@ -2975,10 +2978,10 @@
         <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>290</v>
@@ -2987,19 +2990,19 @@
         <v>246042</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>743</v>
@@ -3008,13 +3011,13 @@
         <v>745736</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>1140</v>
@@ -3023,13 +3026,13 @@
         <v>743512</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>1883</v>
@@ -3038,19 +3041,19 @@
         <v>1489248</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>2419</v>
@@ -3059,13 +3062,13 @@
         <v>2427304</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>4017</v>
@@ -3074,13 +3077,13 @@
         <v>2915440</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>6436</v>
@@ -3089,13 +3092,13 @@
         <v>5342744</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3113,13 @@
         <v>3359179</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <v>5341</v>
@@ -3125,13 +3128,13 @@
         <v>3789390</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" s="7">
         <v>8691</v>
@@ -3140,18 +3143,18 @@
         <v>7148569</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{766301F1-4EF0-41B2-BBD9-F1A9BB746E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E475BD6-79EE-4C21-8F61-4096A03E1059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{289FC704-933A-4E2C-8A21-4B0E395DD365}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47A77627-29C5-415A-BA05-F86F801084F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="218">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -77,709 +77,616 @@
     <t>0%</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,8 +1101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ABC133-FB01-485B-8C5F-E4F7A001D813}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2B7269-70D7-465C-BC26-CC567308DE8A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1327,238 +1234,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>1058</v>
+        <v>5408</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2123</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
       <c r="N5" s="7">
-        <v>1058</v>
+        <v>7531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>970</v>
+        <v>24738</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>1623</v>
+        <v>16857</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>2593</v>
+        <v>41595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>20219</v>
+        <v>126609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="I7" s="7">
-        <v>25038</v>
+        <v>127842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="N7" s="7">
-        <v>45257</v>
+        <v>254451</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>86</v>
+        <v>526</v>
       </c>
       <c r="D8" s="7">
-        <v>77546</v>
+        <v>471165</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>179</v>
+        <v>925</v>
       </c>
       <c r="I8" s="7">
-        <v>102071</v>
+        <v>521530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>265</v>
+        <v>1451</v>
       </c>
       <c r="N8" s="7">
-        <v>179617</v>
+        <v>992695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,306 +1474,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>722</v>
       </c>
       <c r="D9" s="7">
-        <v>99793</v>
+        <v>627920</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
-        <v>239</v>
+        <v>1229</v>
       </c>
       <c r="I9" s="7">
-        <v>128732</v>
+        <v>670768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>355</v>
+        <v>1951</v>
       </c>
       <c r="N9" s="7">
-        <v>228525</v>
+        <v>1298688</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>5484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>2477</v>
+        <v>3086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>2477</v>
+        <v>8570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>4760</v>
+        <v>6945</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>2211</v>
+        <v>7393</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>6971</v>
+        <v>14338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>26939</v>
+        <v>41127</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>16422</v>
+        <v>20526</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7">
-        <v>43361</v>
+        <v>61653</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="D13" s="7">
-        <v>116822</v>
+        <v>217543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="I13" s="7">
-        <v>115266</v>
+        <v>211785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>342</v>
+        <v>603</v>
       </c>
       <c r="N13" s="7">
-        <v>232088</v>
+        <v>429328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>440</v>
+        <v>665</v>
       </c>
       <c r="D14" s="7">
-        <v>395623</v>
+        <v>915388</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
-        <v>746</v>
+        <v>1092</v>
       </c>
       <c r="I14" s="7">
-        <v>453291</v>
+        <v>712844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
-        <v>1186</v>
+        <v>1757</v>
       </c>
       <c r="N14" s="7">
-        <v>848913</v>
+        <v>1628231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,54 +1782,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>606</v>
+        <v>958</v>
       </c>
       <c r="D15" s="7">
-        <v>544144</v>
+        <v>1186487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>990</v>
+        <v>1512</v>
       </c>
       <c r="I15" s="7">
-        <v>589667</v>
+        <v>955633</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>1596</v>
+        <v>2470</v>
       </c>
       <c r="N15" s="7">
-        <v>1133810</v>
+        <v>2142120</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1931,250 +1838,250 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>5389</v>
+        <v>5314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>3327</v>
+        <v>2503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>8716</v>
+        <v>7817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5225</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1771</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
-        <v>7871</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8435</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>20</v>
-      </c>
       <c r="N17" s="7">
-        <v>16307</v>
+        <v>6996</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>45174</v>
+        <v>26458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>22365</v>
+        <v>20181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>67539</v>
+        <v>46639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="D19" s="7">
-        <v>232693</v>
+        <v>205396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>369</v>
+        <v>230</v>
       </c>
       <c r="I19" s="7">
-        <v>236161</v>
+        <v>147239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>603</v>
+        <v>416</v>
       </c>
       <c r="N19" s="7">
-        <v>468854</v>
+        <v>352636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>665</v>
+        <v>447</v>
       </c>
       <c r="D20" s="7">
-        <v>741471</v>
+        <v>459249</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>1092</v>
+        <v>780</v>
       </c>
       <c r="I20" s="7">
-        <v>786491</v>
+        <v>759238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>1757</v>
+        <v>1227</v>
       </c>
       <c r="N20" s="7">
-        <v>1527961</v>
+        <v>1218488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,306 +2090,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>958</v>
+        <v>671</v>
       </c>
       <c r="D21" s="7">
-        <v>1032598</v>
+        <v>701643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>1512</v>
+        <v>1043</v>
       </c>
       <c r="I21" s="7">
-        <v>1056779</v>
+        <v>930933</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>2470</v>
+        <v>1714</v>
       </c>
       <c r="N21" s="7">
-        <v>2089377</v>
+        <v>1632576</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>5372</v>
+        <v>1532</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>2766</v>
+        <v>2958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>8138</v>
+        <v>4490</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8550</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="7">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
-        <v>5332</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
       <c r="I23" s="7">
-        <v>1896</v>
+        <v>4916</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N23" s="7">
-        <v>7228</v>
+        <v>13466</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D24" s="7">
-        <v>28168</v>
+        <v>41554</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I24" s="7">
-        <v>21352</v>
+        <v>34468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="N24" s="7">
-        <v>49520</v>
+        <v>76022</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D25" s="7">
-        <v>215011</v>
+        <v>146490</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="I25" s="7">
-        <v>163926</v>
+        <v>177118</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="N25" s="7">
-        <v>378936</v>
+        <v>323608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>447</v>
+        <v>781</v>
       </c>
       <c r="D26" s="7">
-        <v>471786</v>
+        <v>720401</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
-        <v>780</v>
+        <v>1220</v>
       </c>
       <c r="I26" s="7">
-        <v>681732</v>
+        <v>868174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
-        <v>1227</v>
+        <v>2001</v>
       </c>
       <c r="N26" s="7">
-        <v>1153518</v>
+        <v>1588576</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,306 +2398,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>671</v>
+        <v>999</v>
       </c>
       <c r="D27" s="7">
-        <v>725669</v>
+        <v>918527</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
-        <v>1043</v>
+        <v>1557</v>
       </c>
       <c r="I27" s="7">
-        <v>871671</v>
+        <v>1087635</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
-        <v>1714</v>
+        <v>2556</v>
       </c>
       <c r="N27" s="7">
-        <v>1597340</v>
+        <v>2006163</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>1610</v>
+        <v>12330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>3142</v>
+        <v>10964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>4752</v>
+        <v>23294</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7">
-        <v>9571</v>
+        <v>26129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I29" s="7">
-        <v>5317</v>
+        <v>16202</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N29" s="7">
-        <v>14888</v>
+        <v>42331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D30" s="7">
-        <v>43925</v>
+        <v>133877</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="I30" s="7">
-        <v>39104</v>
+        <v>92033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="N30" s="7">
-        <v>83029</v>
+        <v>225909</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>165</v>
+        <v>743</v>
       </c>
       <c r="D31" s="7">
-        <v>160991</v>
+        <v>696038</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
-        <v>275</v>
+        <v>1140</v>
       </c>
       <c r="I31" s="7">
-        <v>203122</v>
+        <v>663984</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
-        <v>440</v>
+        <v>1883</v>
       </c>
       <c r="N31" s="7">
-        <v>364113</v>
+        <v>1360022</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>781</v>
+        <v>2419</v>
       </c>
       <c r="D32" s="7">
-        <v>740878</v>
+        <v>2566204</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
-        <v>1220</v>
+        <v>4017</v>
       </c>
       <c r="I32" s="7">
-        <v>891857</v>
+        <v>2861786</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
-        <v>2001</v>
+        <v>6436</v>
       </c>
       <c r="N32" s="7">
-        <v>1632734</v>
+        <v>5427989</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,370 +2706,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>999</v>
+        <v>3350</v>
       </c>
       <c r="D33" s="7">
-        <v>956975</v>
+        <v>3434578</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
-        <v>1557</v>
+        <v>5341</v>
       </c>
       <c r="I33" s="7">
-        <v>1142542</v>
+        <v>3644969</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
-        <v>2556</v>
+        <v>8691</v>
       </c>
       <c r="N33" s="7">
-        <v>2099516</v>
+        <v>7079546</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>10</v>
-      </c>
-      <c r="D34" s="7">
-        <v>12371</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="7">
-        <v>16</v>
-      </c>
-      <c r="I34" s="7">
-        <v>11712</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M34" s="7">
-        <v>26</v>
-      </c>
-      <c r="N34" s="7">
-        <v>24083</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>32</v>
-      </c>
-      <c r="D35" s="7">
-        <v>28592</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="7">
-        <v>24</v>
-      </c>
-      <c r="I35" s="7">
-        <v>17860</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="A34" t="s">
         <v>217</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M35" s="7">
-        <v>56</v>
-      </c>
-      <c r="N35" s="7">
-        <v>46452</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="7">
-        <v>146</v>
-      </c>
-      <c r="D36" s="7">
-        <v>145176</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H36" s="7">
-        <v>144</v>
-      </c>
-      <c r="I36" s="7">
-        <v>100866</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M36" s="7">
-        <v>290</v>
-      </c>
-      <c r="N36" s="7">
-        <v>246042</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="7">
-        <v>743</v>
-      </c>
-      <c r="D37" s="7">
-        <v>745736</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1140</v>
-      </c>
-      <c r="I37" s="7">
-        <v>743512</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1883</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1489248</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2419</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2427304</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="7">
-        <v>4017</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2915440</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M38" s="7">
-        <v>6436</v>
-      </c>
-      <c r="N38" s="7">
-        <v>5342744</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3350</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3359179</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5341</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3789390</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8691</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7148569</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>248</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023</t>
+          <t>Población según la creencia de si es importante vacunar a los niños/as en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
